--- a/Ratings/Ratings-JPG-GIF-BMP.xlsx
+++ b/Ratings/Ratings-JPG-GIF-BMP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="468" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="8" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="593" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="greenjpg" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>green.jpg</t>
   </si>
@@ -85,6 +85,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -168,8 +169,8 @@
   </sheetPr>
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A11" activeCellId="0" pane="topLeft" sqref="A11"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="G1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="J16" activeCellId="0" pane="topLeft" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -241,31 +242,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>0</v>
@@ -300,40 +301,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="L3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>0</v>
@@ -342,7 +343,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>0</v>
@@ -359,46 +360,46 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="L4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>0</v>
@@ -418,46 +419,46 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>0</v>
@@ -477,13 +478,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2</v>
@@ -501,11 +502,11 @@
         <v>0</v>
       </c>
       <c r="J6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="L6" s="0" t="n">
         <v>2</v>
       </c>
@@ -513,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O6" s="0" t="n">
         <v>0</v>
@@ -536,31 +537,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>0</v>
@@ -575,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7" s="0" t="n">
         <v>0</v>
@@ -595,40 +596,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>0</v>
@@ -654,46 +655,46 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="N9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>0</v>
@@ -713,19 +714,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>2</v>
@@ -737,10 +738,10 @@
         <v>2</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>2</v>
@@ -772,16 +773,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>2</v>
@@ -793,13 +794,13 @@
         <v>2</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>2</v>
@@ -808,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11" s="0" t="n">
         <v>0</v>
@@ -832,63 +833,63 @@
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">AVERAGE(B2:B11)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">AVERAGE(C2:C11)</f>
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">AVERAGE(D2:D11)</f>
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">AVERAGE(E2:E11)</f>
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">AVERAGE(F2:F11)</f>
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">AVERAGE(G2:G11)</f>
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">AVERAGE(H2:H11)</f>
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">AVERAGE(I2:I11)</f>
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">AVERAGE(J2:J11)</f>
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">AVERAGE(K2:K11)</f>
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">AVERAGE(L2:L11)</f>
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="M12" s="0" t="n">
         <f aca="false">AVERAGE(M2:M11)</f>
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="N12" s="0" t="n">
         <f aca="false">AVERAGE(N2:N11)</f>
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="O12" s="0" t="n">
         <f aca="false">AVERAGE(O2:O11)</f>
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="P12" s="0" t="n">
         <f aca="false">AVERAGE(P2:P11)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Q12" s="0" t="n">
         <f aca="false">AVERAGE(Q2:Q11)</f>
@@ -919,10 +920,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="S1" activeCellId="0" pane="topLeft" sqref="S1"/>
+      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -994,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2</v>
@@ -1053,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -1068,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1</v>
@@ -1112,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2</v>
@@ -1171,13 +1172,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
@@ -1230,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2</v>
@@ -1289,13 +1290,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -1348,7 +1349,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2</v>
@@ -1407,7 +1408,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2</v>
@@ -1466,10 +1467,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -1525,7 +1526,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -1577,12 +1578,17 @@
       </c>
       <c r="S11" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1595,10 +1601,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="S1" activeCellId="0" pane="topLeft" sqref="S1"/>
+      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -1670,13 +1676,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>2</v>
@@ -1688,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>2</v>
@@ -1697,7 +1703,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>2</v>
@@ -1729,13 +1735,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2</v>
@@ -1788,13 +1794,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2</v>
@@ -1847,13 +1853,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>2</v>
@@ -1906,16 +1912,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>2</v>
@@ -1945,7 +1951,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P6" s="0" t="n">
         <v>1</v>
@@ -1965,13 +1971,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>2</v>
@@ -2024,10 +2030,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>2</v>
@@ -2039,7 +2045,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>2</v>
@@ -2083,13 +2089,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>2</v>
@@ -2142,10 +2148,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>2</v>
@@ -2201,10 +2207,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2</v>
@@ -2252,13 +2258,18 @@
         <v>1</v>
       </c>
       <c r="S11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2271,10 +2282,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="O1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="R12" activeCellId="0" pane="topLeft" sqref="R12"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -2346,25 +2357,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>2</v>
@@ -2373,13 +2384,13 @@
         <v>2</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>2</v>
@@ -2405,37 +2416,37 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>2</v>
@@ -2444,13 +2455,13 @@
         <v>2</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>2</v>
@@ -2464,10 +2475,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -2476,16 +2487,16 @@
         <v>2</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>2</v>
@@ -2497,10 +2508,10 @@
         <v>2</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O4" s="0" t="n">
         <v>1</v>
@@ -2523,37 +2534,37 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>2</v>
@@ -2582,16 +2593,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>2</v>
@@ -2600,10 +2611,10 @@
         <v>2</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
@@ -2615,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>2</v>
@@ -2641,37 +2652,37 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>1</v>
@@ -2700,31 +2711,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>2</v>
@@ -2733,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>2</v>
@@ -2759,37 +2770,37 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>2</v>
@@ -2818,37 +2829,37 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>2</v>
@@ -2877,19 +2888,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>2</v>
@@ -2898,7 +2909,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>2</v>
@@ -2928,13 +2939,18 @@
         <v>1</v>
       </c>
       <c r="S11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2950,7 +2966,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D7" activeCellId="0" pane="topLeft" sqref="D7"/>
+      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -3022,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2</v>
@@ -3049,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>1</v>
@@ -3081,13 +3097,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2</v>
@@ -3140,7 +3156,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -3199,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3258,7 +3274,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2</v>
@@ -3317,7 +3333,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2</v>
@@ -3335,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>1</v>
@@ -3376,10 +3392,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>2</v>
@@ -3435,7 +3451,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -3494,7 +3510,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2</v>
@@ -3553,13 +3569,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
@@ -3608,17 +3624,20 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="B12" s="0" t="n">
         <f aca="false">AVERAGE(B2:B11)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">AVERAGE(C2:C11)</f>
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">AVERAGE(D2:D11)</f>
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">AVERAGE(E2:E11)</f>
@@ -3634,7 +3653,7 @@
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">AVERAGE(H2:H11)</f>
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">AVERAGE(I2:I11)</f>
@@ -3646,7 +3665,7 @@
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">AVERAGE(K2:K11)</f>
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">AVERAGE(L2:L11)</f>
@@ -3684,7 +3703,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3700,7 +3719,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A12" activeCellId="0" pane="topLeft" sqref="A12"/>
+      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -3772,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -3831,13 +3850,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
@@ -3890,10 +3909,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>2</v>
@@ -3949,10 +3968,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2</v>
@@ -4008,7 +4027,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2</v>
@@ -4067,13 +4086,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>2</v>
@@ -4115,7 +4134,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S7" s="0" t="n">
         <v>1</v>
@@ -4126,13 +4145,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -4144,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>1</v>
@@ -4153,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>0</v>
@@ -4185,13 +4204,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>2</v>
@@ -4230,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R9" s="0" t="n">
         <v>0</v>
@@ -4244,13 +4263,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1</v>
@@ -4303,13 +4322,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>2</v>
@@ -4358,17 +4377,20 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="B12" s="0" t="n">
         <f aca="false">AVERAGE(B2:B11)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">AVERAGE(C2:C11)</f>
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">AVERAGE(D2:D11)</f>
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">AVERAGE(E2:E11)</f>
@@ -4384,7 +4406,7 @@
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">AVERAGE(H2:H11)</f>
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">AVERAGE(I2:I11)</f>
@@ -4396,7 +4418,7 @@
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">AVERAGE(K2:K11)</f>
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">AVERAGE(L2:L11)</f>
@@ -4420,11 +4442,11 @@
       </c>
       <c r="Q12" s="0" t="n">
         <f aca="false">AVERAGE(Q2:Q11)</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="R12" s="0" t="n">
         <f aca="false">AVERAGE(R2:R11)</f>
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="S12" s="0" t="n">
         <f aca="false">AVERAGE(S2:S11)</f>
@@ -4434,7 +4456,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4450,7 +4472,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -4522,22 +4544,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
@@ -4549,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>1</v>
@@ -4581,13 +4603,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2</v>
@@ -4640,13 +4662,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2</v>
@@ -4655,7 +4677,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1</v>
@@ -4699,13 +4721,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>2</v>
@@ -4720,7 +4742,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -4758,16 +4780,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -4817,16 +4839,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -4838,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -4876,10 +4898,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -4897,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>1</v>
@@ -4935,16 +4957,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>2</v>
@@ -4994,16 +5016,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2</v>
@@ -5018,7 +5040,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>1</v>
@@ -5053,13 +5075,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
@@ -5108,21 +5130,24 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="B12" s="0" t="n">
         <f aca="false">AVERAGE(B2:B11)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">AVERAGE(C2:C11)</f>
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">AVERAGE(D2:D11)</f>
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">AVERAGE(E2:E11)</f>
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">AVERAGE(F2:F11)</f>
@@ -5130,7 +5155,7 @@
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">AVERAGE(G2:G11)</f>
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">AVERAGE(H2:H11)</f>
@@ -5138,15 +5163,15 @@
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">AVERAGE(I2:I11)</f>
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">AVERAGE(J2:J11)</f>
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">AVERAGE(K2:K11)</f>
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">AVERAGE(L2:L11)</f>
@@ -5184,7 +5209,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5199,8 +5224,8 @@
   </sheetPr>
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="L1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C14" activeCellId="0" pane="topLeft" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -5272,49 +5297,49 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>0</v>
@@ -5331,55 +5356,55 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S3" s="0" t="n">
         <v>2</v>
@@ -5390,55 +5415,55 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S4" s="0" t="n">
         <v>0</v>
@@ -5449,58 +5474,58 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="6">
@@ -5508,58 +5533,58 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="7">
@@ -5567,52 +5592,52 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7" s="0" t="n">
         <v>0</v>
@@ -5626,55 +5651,55 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S8" s="0" t="n">
         <v>0</v>
@@ -5685,58 +5710,58 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="10">
@@ -5744,55 +5769,55 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10" s="0" t="n">
         <v>0</v>
@@ -5803,132 +5828,135 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="B12" s="0" t="n">
         <f aca="false">AVERAGE(B2:B11)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">AVERAGE(C2:C11)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">AVERAGE(D2:D11)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">AVERAGE(E2:E11)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">AVERAGE(F2:F11)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">AVERAGE(G2:G11)</f>
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">AVERAGE(H2:H11)</f>
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">AVERAGE(I2:I11)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">AVERAGE(J2:J11)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">AVERAGE(K2:K11)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L12" s="0" t="n">
         <f aca="false">AVERAGE(L2:L11)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" s="0" t="n">
         <f aca="false">AVERAGE(M2:M11)</f>
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N12" s="0" t="n">
         <f aca="false">AVERAGE(N2:N11)</f>
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="O12" s="0" t="n">
         <f aca="false">AVERAGE(O2:O11)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P12" s="0" t="n">
         <f aca="false">AVERAGE(P2:P11)</f>
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q12" s="0" t="n">
         <f aca="false">AVERAGE(Q2:Q11)</f>
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="R12" s="0" t="n">
         <f aca="false">AVERAGE(R2:R11)</f>
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="S12" s="0" t="n">
         <f aca="false">AVERAGE(S2:S11)</f>
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="14">
@@ -5944,7 +5972,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5957,10 +5985,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="Q1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -6032,55 +6060,55 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S2" s="0" t="n">
         <v>0</v>
@@ -6091,58 +6119,58 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="4">
@@ -6150,58 +6178,58 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="5">
@@ -6209,58 +6237,58 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="6">
@@ -6268,58 +6296,58 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="7">
@@ -6327,55 +6355,55 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S7" s="0" t="n">
         <v>0</v>
@@ -6386,55 +6414,55 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S8" s="0" t="n">
         <v>0</v>
@@ -6445,58 +6473,58 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="10">
@@ -6504,58 +6532,58 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="11">
@@ -6563,64 +6591,69 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6633,10 +6666,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="Q1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -6708,58 +6741,58 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="3">
@@ -6767,58 +6800,58 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="4">
@@ -6826,58 +6859,58 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="5">
@@ -6885,58 +6918,58 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="6">
@@ -6944,58 +6977,58 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="7">
@@ -7003,55 +7036,55 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S7" s="0" t="n">
         <v>0</v>
@@ -7062,58 +7095,58 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="9">
@@ -7121,52 +7154,52 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R9" s="0" t="n">
         <v>0</v>
@@ -7180,58 +7213,58 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="11">
@@ -7239,64 +7272,69 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -7309,10 +7347,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="S1" activeCellId="0" pane="topLeft" sqref="S1"/>
+      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -7384,58 +7422,58 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="3">
@@ -7443,58 +7481,58 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="4">
@@ -7502,58 +7540,58 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="5">
@@ -7561,58 +7599,58 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="6">
@@ -7620,58 +7658,58 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="7">
@@ -7679,55 +7717,55 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S7" s="0" t="n">
         <v>0</v>
@@ -7738,58 +7776,58 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="9">
@@ -7797,58 +7835,58 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="10">
@@ -7856,55 +7894,55 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10" s="0" t="n">
         <v>0</v>
@@ -7915,64 +7953,69 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -7985,10 +8028,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="Q1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="K1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="O11" activeCellId="0" pane="topLeft" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -8060,40 +8103,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>2</v>
@@ -8119,19 +8162,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="F3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>1</v>
@@ -8140,22 +8183,22 @@
         <v>2</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O3" s="0" t="n">
         <v>2</v>
@@ -8178,43 +8221,43 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="G4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="0" t="n">
+      <c r="I4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="L4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O4" s="0" t="n">
         <v>3</v>
@@ -8237,34 +8280,34 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>0</v>
@@ -8273,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O5" s="0" t="n">
         <v>2</v>
@@ -8296,52 +8339,52 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="N6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="R6" s="0" t="n">
         <v>0</v>
@@ -8355,46 +8398,46 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="L7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>3</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P7" s="0" t="n">
         <v>2</v>
@@ -8414,46 +8457,46 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O8" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>1</v>
@@ -8473,23 +8516,23 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
       </c>
@@ -8500,13 +8543,13 @@
         <v>2</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>3</v>
@@ -8532,25 +8575,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>3</v>
@@ -8559,10 +8602,10 @@
         <v>2</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>3</v>
@@ -8591,31 +8634,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="I11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>2</v>
@@ -8643,12 +8686,17 @@
       </c>
       <c r="S11" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Ratings/Ratings-JPG-GIF-BMP.xlsx
+++ b/Ratings/Ratings-JPG-GIF-BMP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="593" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="873" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="greenjpg" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="meanchart" sheetId="14" r:id="rId13"/>
     <sheet name="meanchart2" sheetId="15" r:id="rId14"/>
     <sheet name="Overall Tables" sheetId="13" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -2551,11 +2552,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165808000"/>
-        <c:axId val="165809536"/>
+        <c:axId val="111162496"/>
+        <c:axId val="111164032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165808000"/>
+        <c:axId val="111162496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -2566,14 +2567,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165809536"/>
+        <c:crossAx val="111164032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="100"/>
         <c:minorUnit val="50"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165809536"/>
+        <c:axId val="111164032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2585,7 +2586,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165808000"/>
+        <c:crossAx val="111162496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4952,11 +4953,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="179022464"/>
-        <c:axId val="179032448"/>
+        <c:axId val="111266816"/>
+        <c:axId val="111272704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="179022464"/>
+        <c:axId val="111266816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4966,7 +4967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179032448"/>
+        <c:crossAx val="111272704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4974,7 +4975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179032448"/>
+        <c:axId val="111272704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -4986,7 +4987,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179022464"/>
+        <c:crossAx val="111266816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5007,7 +5008,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5018,7 +5019,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5029,7 +5030,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6294437"/>
+    <xdr:ext cx="8651875" cy="6297083"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5056,7 +5057,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6294437"/>
+    <xdr:ext cx="8642195" cy="6295793"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5368,13 +5369,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125"/>
+    <col min="1" max="19" width="7.140625" customWidth="1"/>
+    <col min="20" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
@@ -6426,7 +6428,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:S16"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7483,7 +7485,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:S16"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8540,7 +8542,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9596,11 +9598,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S18"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74:S74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -14774,6 +14779,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -14782,7 +14799,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:S1"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15839,7 +15856,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16896,7 +16913,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17953,12 +17970,14 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B16" sqref="B16:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="19" width="7.85546875" customWidth="1"/>
+    <col min="20" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
@@ -19020,7 +19039,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:S16"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20077,7 +20096,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:S16"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21134,7 +21153,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:S16"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22191,12 +22210,14 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:S16"/>
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="19" width="9.28515625" customWidth="1"/>
+    <col min="20" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
